--- a/Code/Results/Cases/Case_2_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9450227164744547</v>
+        <v>0.8040655475735718</v>
       </c>
       <c r="C2">
-        <v>0.09765572741666162</v>
+        <v>0.1436306051655514</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06036762632110104</v>
+        <v>0.161725639684466</v>
       </c>
       <c r="F2">
-        <v>1.898472049175496</v>
+        <v>3.103742072394027</v>
       </c>
       <c r="G2">
-        <v>1.434599584993947</v>
+        <v>2.069768339182161</v>
       </c>
       <c r="H2">
-        <v>0.958954890403291</v>
+        <v>1.749238341856895</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1041654362146618</v>
+        <v>0.1520405910991647</v>
       </c>
       <c r="K2">
-        <v>0.7317264462237745</v>
+        <v>0.3686519332727869</v>
       </c>
       <c r="L2">
-        <v>0.1617397619884713</v>
+        <v>0.2948185936199366</v>
       </c>
       <c r="M2">
-        <v>0.2130410073821345</v>
+        <v>0.2417527352607607</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8263420160827195</v>
+        <v>0.7769275376238625</v>
       </c>
       <c r="C3">
-        <v>0.0950773151438149</v>
+        <v>0.142555060226357</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05797163875392286</v>
+        <v>0.16185835895884</v>
       </c>
       <c r="F3">
-        <v>1.814190992389271</v>
+        <v>3.095409000558973</v>
       </c>
       <c r="G3">
-        <v>1.385712176265102</v>
+        <v>2.064397557424357</v>
       </c>
       <c r="H3">
-        <v>0.9440544669890159</v>
+        <v>1.751565992879023</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1059343054231716</v>
+        <v>0.1521971606541257</v>
       </c>
       <c r="K3">
-        <v>0.6336993485839173</v>
+        <v>0.3434197027700066</v>
       </c>
       <c r="L3">
-        <v>0.1462525985250522</v>
+        <v>0.29258987759588</v>
       </c>
       <c r="M3">
-        <v>0.1879714214683332</v>
+        <v>0.2366164612222086</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7542516377253321</v>
+        <v>0.7607093242720566</v>
       </c>
       <c r="C4">
-        <v>0.09349084220961501</v>
+        <v>0.1418764504728571</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05655374908823241</v>
+        <v>0.1619866915041595</v>
       </c>
       <c r="F4">
-        <v>1.764871002410288</v>
+        <v>3.091504985266866</v>
       </c>
       <c r="G4">
-        <v>1.357688794587972</v>
+        <v>2.061929026847992</v>
       </c>
       <c r="H4">
-        <v>0.9360301140515759</v>
+        <v>1.753554716150646</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1070276085125741</v>
+        <v>0.1522930554011852</v>
       </c>
       <c r="K4">
-        <v>0.5739671714707839</v>
+        <v>0.3281232047717566</v>
       </c>
       <c r="L4">
-        <v>0.1368920256312833</v>
+        <v>0.291347270731805</v>
       </c>
       <c r="M4">
-        <v>0.1727643411807342</v>
+        <v>0.2335879005035757</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7250496572627299</v>
+        <v>0.7542124659932199</v>
       </c>
       <c r="C5">
-        <v>0.09284289760560682</v>
+        <v>0.1415953141558859</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05598889436737231</v>
+        <v>0.1620508043045152</v>
       </c>
       <c r="F5">
-        <v>1.745351761628967</v>
+        <v>3.090219198924729</v>
       </c>
       <c r="G5">
-        <v>1.346743453111827</v>
+        <v>2.061131493310711</v>
       </c>
       <c r="H5">
-        <v>0.9330307826389372</v>
+        <v>1.75450591249637</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1074751506201865</v>
+        <v>0.1523320761234164</v>
       </c>
       <c r="K5">
-        <v>0.5497237967547619</v>
+        <v>0.3219392885989549</v>
       </c>
       <c r="L5">
-        <v>0.1331124643595558</v>
+        <v>0.2908726533729009</v>
       </c>
       <c r="M5">
-        <v>0.1666098192555978</v>
+        <v>0.2323853140740475</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7202107045628736</v>
+        <v>0.7531404554676442</v>
       </c>
       <c r="C6">
-        <v>0.09273520271172586</v>
+        <v>0.1415483535633726</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05589587010294572</v>
+        <v>0.1620621649588863</v>
       </c>
       <c r="F6">
-        <v>1.742144686266144</v>
+        <v>3.090024131161471</v>
       </c>
       <c r="G6">
-        <v>1.344953883219219</v>
+        <v>2.061011648659274</v>
       </c>
       <c r="H6">
-        <v>0.9325487517854327</v>
+        <v>1.75467236265753</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1075495918638252</v>
+        <v>0.1523385521238101</v>
       </c>
       <c r="K6">
-        <v>0.5457036456154327</v>
+        <v>0.3209154514399586</v>
       </c>
       <c r="L6">
-        <v>0.1324869137867921</v>
+        <v>0.2907957647857558</v>
       </c>
       <c r="M6">
-        <v>0.1655903130587504</v>
+        <v>0.2321875359534609</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7538571257516651</v>
+        <v>0.7606212505762926</v>
       </c>
       <c r="C7">
-        <v>0.09348211042210863</v>
+        <v>0.1418726776046242</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05654607940809875</v>
+        <v>0.161987508258246</v>
       </c>
       <c r="F7">
-        <v>1.764605455156513</v>
+        <v>3.09148640893423</v>
       </c>
       <c r="G7">
-        <v>1.357539295445747</v>
+        <v>2.061917427294503</v>
       </c>
       <c r="H7">
-        <v>0.935988583646818</v>
+        <v>1.753566974229031</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1070336358163626</v>
+        <v>0.1522935818760063</v>
       </c>
       <c r="K7">
-        <v>0.5736398417478767</v>
+        <v>0.3280396055035197</v>
       </c>
       <c r="L7">
-        <v>0.13684091473894</v>
+        <v>0.2913407411500231</v>
       </c>
       <c r="M7">
-        <v>0.1726811725144302</v>
+        <v>0.2335715540015784</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9039268147393784</v>
+        <v>0.7946162991995607</v>
       </c>
       <c r="C8">
-        <v>0.09676699733764593</v>
+        <v>0.1432635294076015</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05953015985862642</v>
+        <v>0.1617617012977259</v>
       </c>
       <c r="F8">
-        <v>1.868888145062357</v>
+        <v>3.100617300186997</v>
       </c>
       <c r="G8">
-        <v>1.417312714555777</v>
+        <v>2.067744346976113</v>
       </c>
       <c r="H8">
-        <v>0.9535762952842362</v>
+        <v>1.749924827116075</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1047739683757714</v>
+        <v>0.1520946278697775</v>
       </c>
       <c r="K8">
-        <v>0.6978213502485886</v>
+        <v>0.359911248616541</v>
       </c>
       <c r="L8">
-        <v>0.1563674387010536</v>
+        <v>0.2940240818330935</v>
       </c>
       <c r="M8">
-        <v>0.2043558356151287</v>
+        <v>0.2399558409478821</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.20541637063701</v>
+        <v>0.8647959528178717</v>
       </c>
       <c r="C9">
-        <v>0.1032125544621572</v>
+        <v>0.1458471951402167</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06582623822423628</v>
+        <v>0.1616890231923307</v>
       </c>
       <c r="F9">
-        <v>2.094193323034617</v>
+        <v>3.12813756910252</v>
       </c>
       <c r="G9">
-        <v>1.55164958688033</v>
+        <v>2.085756302588749</v>
       </c>
       <c r="H9">
-        <v>0.9975754419343446</v>
+        <v>1.747220038480918</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1003904732830119</v>
+        <v>0.151702428219485</v>
       </c>
       <c r="K9">
-        <v>0.9457944906672253</v>
+        <v>0.4239632380815124</v>
       </c>
       <c r="L9">
-        <v>0.1959564571028949</v>
+        <v>0.3002801582471335</v>
       </c>
       <c r="M9">
-        <v>0.268150100153413</v>
+        <v>0.2534643545996857</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.432848435398654</v>
+        <v>0.9184899858550182</v>
       </c>
       <c r="C10">
-        <v>0.10799703201738</v>
+        <v>0.1476589574974412</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07075565731837585</v>
+        <v>0.1618593324514457</v>
       </c>
       <c r="F10">
-        <v>2.274711183116224</v>
+        <v>3.1542156027011</v>
       </c>
       <c r="G10">
-        <v>1.662739216998062</v>
+        <v>2.103017058546271</v>
       </c>
       <c r="H10">
-        <v>1.036579852257091</v>
+        <v>1.74793667661649</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09718498668262399</v>
+        <v>0.1514128039121436</v>
       </c>
       <c r="K10">
-        <v>1.131952786502808</v>
+        <v>0.4719671459805568</v>
       </c>
       <c r="L10">
-        <v>0.2260126609423594</v>
+        <v>0.3054774770083526</v>
       </c>
       <c r="M10">
-        <v>0.3163568246186585</v>
+        <v>0.2639880926465068</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.537974130029028</v>
+        <v>0.9433783024253444</v>
       </c>
       <c r="C11">
-        <v>0.110195900058649</v>
+        <v>0.148464667519427</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0730720387092596</v>
+        <v>0.1619849880583111</v>
       </c>
       <c r="F11">
-        <v>2.360644313408116</v>
+        <v>3.167351274167672</v>
       </c>
       <c r="G11">
-        <v>1.716442437390157</v>
+        <v>2.111746919377822</v>
       </c>
       <c r="H11">
-        <v>1.055988265091202</v>
+        <v>1.74884965506331</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0957267230455896</v>
+        <v>0.1512806788369128</v>
       </c>
       <c r="K11">
-        <v>1.217810323854764</v>
+        <v>0.4940106969226008</v>
       </c>
       <c r="L11">
-        <v>0.2399399777854114</v>
+        <v>0.3079713690786008</v>
       </c>
       <c r="M11">
-        <v>0.3386535685191774</v>
+        <v>0.2689049726281638</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.578055724803136</v>
+        <v>0.9528691080327008</v>
       </c>
       <c r="C12">
-        <v>0.1110328593633909</v>
+        <v>0.1487671316510699</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07396053340532305</v>
+        <v>0.1620394638286555</v>
       </c>
       <c r="F12">
-        <v>2.393783866428379</v>
+        <v>3.172508290650725</v>
       </c>
       <c r="G12">
-        <v>1.73727723868268</v>
+        <v>2.115179092754687</v>
       </c>
       <c r="H12">
-        <v>1.063596703435991</v>
+        <v>1.74927974345718</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09517422263974762</v>
+        <v>0.1512305897660244</v>
       </c>
       <c r="K12">
-        <v>1.250518772056779</v>
+        <v>0.5023875811418748</v>
       </c>
       <c r="L12">
-        <v>0.2452543694921303</v>
+        <v>0.3089342787951352</v>
       </c>
       <c r="M12">
-        <v>0.3471564016212128</v>
+        <v>0.2707854121763518</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.569410744122763</v>
+        <v>0.9508221577301015</v>
       </c>
       <c r="C13">
-        <v>0.110852395761853</v>
+        <v>0.1487021077956356</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0737686645486022</v>
+        <v>0.1620274255071728</v>
       </c>
       <c r="F13">
-        <v>2.386619209395789</v>
+        <v>3.171389506677457</v>
       </c>
       <c r="G13">
-        <v>1.732767193149755</v>
+        <v>2.114434290645363</v>
       </c>
       <c r="H13">
-        <v>1.061946247765405</v>
+        <v>1.749183364826706</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09529323087813246</v>
+        <v>0.1512413798799139</v>
       </c>
       <c r="K13">
-        <v>1.243465240975581</v>
+        <v>0.5005821617278912</v>
       </c>
       <c r="L13">
-        <v>0.2441079585434665</v>
+        <v>0.3087260767175763</v>
       </c>
       <c r="M13">
-        <v>0.3453224030582547</v>
+        <v>0.270379603757199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.54126599941543</v>
+        <v>0.9441577933613416</v>
       </c>
       <c r="C14">
-        <v>0.1102646645323873</v>
+        <v>0.1484896042634105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0731449044266661</v>
+        <v>0.1619893318759011</v>
       </c>
       <c r="F14">
-        <v>2.363358427408969</v>
+        <v>3.167771882016893</v>
       </c>
       <c r="G14">
-        <v>1.718146277572913</v>
+        <v>2.112026753071405</v>
       </c>
       <c r="H14">
-        <v>1.056608909801241</v>
+        <v>1.74888334817399</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09568127591808739</v>
+        <v>0.1512765591187302</v>
       </c>
       <c r="K14">
-        <v>1.220497172861343</v>
+        <v>0.4946992787477598</v>
       </c>
       <c r="L14">
-        <v>0.2403763630151019</v>
+        <v>0.3080502175622399</v>
       </c>
       <c r="M14">
-        <v>0.339351867871315</v>
+        <v>0.2690593069008287</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.524063089806816</v>
+        <v>0.9400842797858502</v>
       </c>
       <c r="C15">
-        <v>0.1099052555310678</v>
+        <v>0.1483590962601085</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07276433058893517</v>
+        <v>0.161966895007339</v>
       </c>
       <c r="F15">
-        <v>2.349190029685388</v>
+        <v>3.165579785988029</v>
       </c>
       <c r="G15">
-        <v>1.709256811289038</v>
+        <v>2.110568527032541</v>
       </c>
       <c r="H15">
-        <v>1.053373958016067</v>
+        <v>1.748710564628198</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09591891873572411</v>
+        <v>0.1512981000315055</v>
       </c>
       <c r="K15">
-        <v>1.206454954151752</v>
+        <v>0.4910996749999299</v>
       </c>
       <c r="L15">
-        <v>0.2380960350482866</v>
+        <v>0.3076386438062571</v>
       </c>
       <c r="M15">
-        <v>0.3357027059391484</v>
+        <v>0.2682529960656765</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426014520193604</v>
+        <v>0.9168727521271478</v>
       </c>
       <c r="C16">
-        <v>0.107853870731887</v>
+        <v>0.1476059320878704</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07060582290541717</v>
+        <v>0.1618520870355233</v>
       </c>
       <c r="F16">
-        <v>2.269176192087954</v>
+        <v>3.153382748968653</v>
       </c>
       <c r="G16">
-        <v>1.659296926076678</v>
+        <v>2.102464217433067</v>
       </c>
       <c r="H16">
-        <v>1.035346598070475</v>
+        <v>1.747888819082135</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09728026287487612</v>
+        <v>0.1514214308673374</v>
       </c>
       <c r="K16">
-        <v>1.126367686748949</v>
+        <v>0.4705306828280413</v>
       </c>
       <c r="L16">
-        <v>0.2251079198064048</v>
+        <v>0.3053170938566581</v>
       </c>
       <c r="M16">
-        <v>0.3149076326123179</v>
+        <v>0.2636693610567633</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.366314302310229</v>
+        <v>0.9027514473518465</v>
       </c>
       <c r="C17">
-        <v>0.1066018768851151</v>
+        <v>0.1471391704717249</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06930107021575083</v>
+        <v>0.1617939709560972</v>
       </c>
       <c r="F17">
-        <v>2.221101613548839</v>
+        <v>3.146226086864473</v>
       </c>
       <c r="G17">
-        <v>1.629489010667328</v>
+        <v>2.097717418586342</v>
       </c>
       <c r="H17">
-        <v>1.024727193493561</v>
+        <v>1.747535012563304</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09811519297389459</v>
+        <v>0.151496992883124</v>
       </c>
       <c r="K17">
-        <v>1.077555950648133</v>
+        <v>0.4579649756209108</v>
       </c>
       <c r="L17">
-        <v>0.2172079551763346</v>
+        <v>0.3039260146399982</v>
       </c>
       <c r="M17">
-        <v>0.3022492058734372</v>
+        <v>0.2608905595307291</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.332130947721055</v>
+        <v>0.8946728142539087</v>
       </c>
       <c r="C18">
-        <v>0.1058837992492201</v>
+        <v>0.1468689621626709</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06855752806526283</v>
+        <v>0.1617650812752061</v>
       </c>
       <c r="F18">
-        <v>2.193806212322642</v>
+        <v>3.142229562136208</v>
       </c>
       <c r="G18">
-        <v>1.61263968889557</v>
+        <v>2.095069805673347</v>
       </c>
       <c r="H18">
-        <v>1.018774661331832</v>
+        <v>1.747386763905837</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09859543349641342</v>
+        <v>0.1515404191358591</v>
       </c>
       <c r="K18">
-        <v>1.049589383743267</v>
+        <v>0.4507569460018601</v>
       </c>
       <c r="L18">
-        <v>0.2126878230217386</v>
+        <v>0.3031381083176967</v>
       </c>
       <c r="M18">
-        <v>0.2950025471832234</v>
+        <v>0.259304469448395</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.320582641964251</v>
+        <v>0.891945022533946</v>
       </c>
       <c r="C19">
-        <v>0.1056409892235095</v>
+        <v>0.1467771750729128</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06830694517051938</v>
+        <v>0.1617560800753353</v>
       </c>
       <c r="F19">
-        <v>2.184624114630395</v>
+        <v>3.140896988511372</v>
       </c>
       <c r="G19">
-        <v>1.606984282610256</v>
+        <v>2.094187555583375</v>
       </c>
       <c r="H19">
-        <v>1.016785372285426</v>
+        <v>1.747346060289544</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09875804472100924</v>
+        <v>0.1515551165809397</v>
       </c>
       <c r="K19">
-        <v>1.040138250745372</v>
+        <v>0.4483197747775591</v>
       </c>
       <c r="L19">
-        <v>0.2111613465201714</v>
+        <v>0.3028734364765313</v>
       </c>
       <c r="M19">
-        <v>0.2925546196027113</v>
+        <v>0.2587695458348946</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.372653256774157</v>
+        <v>0.9042501780407122</v>
       </c>
       <c r="C20">
-        <v>0.106734935598702</v>
+        <v>0.1471890379511009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0694392426094268</v>
+        <v>0.1617996881931454</v>
       </c>
       <c r="F20">
-        <v>2.226182058880468</v>
+        <v>3.146975528427959</v>
       </c>
       <c r="G20">
-        <v>1.632631241233071</v>
+        <v>2.098214171594947</v>
       </c>
       <c r="H20">
-        <v>1.025841421238567</v>
+        <v>1.74756695785706</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09802631407579554</v>
+        <v>0.151488952819701</v>
       </c>
       <c r="K20">
-        <v>1.082740607534419</v>
+        <v>0.4593006068419356</v>
       </c>
       <c r="L20">
-        <v>0.2180464385019576</v>
+        <v>0.3040728349595554</v>
       </c>
       <c r="M20">
-        <v>0.3035931373632579</v>
+        <v>0.2611851055219816</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.549525110832889</v>
+        <v>0.9461134867514716</v>
       </c>
       <c r="C21">
-        <v>0.1104371697010507</v>
+        <v>0.1485520932502311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0733278045502388</v>
+        <v>0.1620003341156462</v>
       </c>
       <c r="F21">
-        <v>2.37017401941236</v>
+        <v>3.168829505761366</v>
       </c>
       <c r="G21">
-        <v>1.722426902916823</v>
+        <v>2.11273047468552</v>
       </c>
       <c r="H21">
-        <v>1.058169425570071</v>
+        <v>1.748969181083311</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0955673077840915</v>
+        <v>0.1512662276667394</v>
       </c>
       <c r="K21">
-        <v>1.227237900083736</v>
+        <v>0.4964264258634898</v>
       </c>
       <c r="L21">
-        <v>0.2414712942271962</v>
+        <v>0.3082482318394142</v>
       </c>
       <c r="M21">
-        <v>0.3411038864256568</v>
+        <v>0.2694466082294866</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.666728590285828</v>
+        <v>0.9738589186052877</v>
       </c>
       <c r="C22">
-        <v>0.1128824178690309</v>
+        <v>0.149427543370912</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07593561536184268</v>
+        <v>0.162171627456658</v>
       </c>
       <c r="F22">
-        <v>2.467796138946923</v>
+        <v>3.184177890247426</v>
       </c>
       <c r="G22">
-        <v>1.784042247051303</v>
+        <v>2.122954327241217</v>
       </c>
       <c r="H22">
-        <v>1.080816957920121</v>
+        <v>1.750377329151405</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0939583873557579</v>
+        <v>0.1511203354336894</v>
       </c>
       <c r="K22">
-        <v>1.322832516851662</v>
+        <v>0.5208619765521973</v>
       </c>
       <c r="L22">
-        <v>0.2570183798940775</v>
+        <v>0.3110850334354751</v>
       </c>
       <c r="M22">
-        <v>0.365969917469009</v>
+        <v>0.2749538985496329</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.604016050598801</v>
+        <v>0.9590155273807284</v>
       </c>
       <c r="C23">
-        <v>0.1115746116535092</v>
+        <v>0.1489617018883749</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07453745671883993</v>
+        <v>0.1620765420991468</v>
       </c>
       <c r="F23">
-        <v>2.415354116431615</v>
+        <v>3.175888730954114</v>
       </c>
       <c r="G23">
-        <v>1.750873800831585</v>
+        <v>2.117430222092935</v>
       </c>
       <c r="H23">
-        <v>1.068583647107971</v>
+        <v>1.749580796260773</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09481736093166315</v>
+        <v>0.1511982317013354</v>
       </c>
       <c r="K23">
-        <v>1.271696296217442</v>
+        <v>0.5078046199649862</v>
       </c>
       <c r="L23">
-        <v>0.2486975279510943</v>
+        <v>0.3095611389099133</v>
       </c>
       <c r="M23">
-        <v>0.3526639952390553</v>
+        <v>0.2720047152596266</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.369786984686726</v>
+        <v>0.9035724776048824</v>
       </c>
       <c r="C24">
-        <v>0.1066747745071552</v>
+        <v>0.147166498662969</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06937675443452562</v>
+        <v>0.1617970893424712</v>
       </c>
       <c r="F24">
-        <v>2.223884123928286</v>
+        <v>3.146636338512309</v>
       </c>
       <c r="G24">
-        <v>1.631209746048</v>
+        <v>2.097989336051512</v>
       </c>
       <c r="H24">
-        <v>1.02533720468341</v>
+        <v>1.747552343557601</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09806649549441104</v>
+        <v>0.1514925877788569</v>
       </c>
       <c r="K24">
-        <v>1.080396327330845</v>
+        <v>0.458696717608035</v>
       </c>
       <c r="L24">
-        <v>0.2176672929998915</v>
+        <v>0.3040064205941775</v>
       </c>
       <c r="M24">
-        <v>0.3029854503803975</v>
+        <v>0.2610519055127511</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.122932820604063</v>
+        <v>0.845435197793222</v>
       </c>
       <c r="C25">
-        <v>0.1014639080549493</v>
+        <v>0.1451635149889157</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06407216761350654</v>
+        <v>0.1616692604467254</v>
       </c>
       <c r="F25">
-        <v>2.0307873972029</v>
+        <v>3.11966354989039</v>
       </c>
       <c r="G25">
-        <v>1.513282187024217</v>
+        <v>2.080177262480404</v>
       </c>
       <c r="H25">
-        <v>0.9845676022694363</v>
+        <v>1.747476837249948</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1015726220802788</v>
+        <v>0.1518087719235366</v>
       </c>
       <c r="K25">
-        <v>0.8781105572276715</v>
+        <v>0.4064694716847725</v>
       </c>
       <c r="L25">
-        <v>0.1850899596908775</v>
+        <v>0.2984818253644832</v>
       </c>
       <c r="M25">
-        <v>0.2506813127607543</v>
+        <v>0.2497044719657779</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8040655475735718</v>
+        <v>0.9450227164745399</v>
       </c>
       <c r="C2">
-        <v>0.1436306051655514</v>
+        <v>0.09765572741681083</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.161725639684466</v>
+        <v>0.06036762632113479</v>
       </c>
       <c r="F2">
-        <v>3.103742072394027</v>
+        <v>1.898472049175524</v>
       </c>
       <c r="G2">
-        <v>2.069768339182161</v>
+        <v>1.434599584993933</v>
       </c>
       <c r="H2">
-        <v>1.749238341856895</v>
+        <v>0.958954890403291</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1520405910991647</v>
+        <v>0.1041654362145765</v>
       </c>
       <c r="K2">
-        <v>0.3686519332727869</v>
+        <v>0.7317264462236608</v>
       </c>
       <c r="L2">
-        <v>0.2948185936199366</v>
+        <v>0.1617397619885139</v>
       </c>
       <c r="M2">
-        <v>0.2417527352607607</v>
+        <v>0.2130410073821487</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7769275376238625</v>
+        <v>0.8263420160826911</v>
       </c>
       <c r="C3">
-        <v>0.142555060226357</v>
+        <v>0.09507731514368345</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.16185835895884</v>
+        <v>0.05797163875393707</v>
       </c>
       <c r="F3">
-        <v>3.095409000558973</v>
+        <v>1.814190992389271</v>
       </c>
       <c r="G3">
-        <v>2.064397557424357</v>
+        <v>1.385712176265201</v>
       </c>
       <c r="H3">
-        <v>1.751565992879023</v>
+        <v>0.944054466988888</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1521971606541257</v>
+        <v>0.1059343054231165</v>
       </c>
       <c r="K3">
-        <v>0.3434197027700066</v>
+        <v>0.6336993485838178</v>
       </c>
       <c r="L3">
-        <v>0.29258987759588</v>
+        <v>0.1462525985250096</v>
       </c>
       <c r="M3">
-        <v>0.2366164612222086</v>
+        <v>0.1879714214683261</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7607093242720566</v>
+        <v>0.7542516377252184</v>
       </c>
       <c r="C4">
-        <v>0.1418764504728571</v>
+        <v>0.09349084220961856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1619866915041595</v>
+        <v>0.05655374908823241</v>
       </c>
       <c r="F4">
-        <v>3.091504985266866</v>
+        <v>1.764871002410288</v>
       </c>
       <c r="G4">
-        <v>2.061929026847992</v>
+        <v>1.357688794588</v>
       </c>
       <c r="H4">
-        <v>1.753554716150646</v>
+        <v>0.9360301140516896</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1522930554011852</v>
+        <v>0.1070276085125759</v>
       </c>
       <c r="K4">
-        <v>0.3281232047717566</v>
+        <v>0.5739671714708265</v>
       </c>
       <c r="L4">
-        <v>0.291347270731805</v>
+        <v>0.136892025631262</v>
       </c>
       <c r="M4">
-        <v>0.2335879005035757</v>
+        <v>0.1727643411807342</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7542124659932199</v>
+        <v>0.7250496572626162</v>
       </c>
       <c r="C5">
-        <v>0.1415953141558859</v>
+        <v>0.09284289760587328</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1620508043045152</v>
+        <v>0.05598889436737586</v>
       </c>
       <c r="F5">
-        <v>3.090219198924729</v>
+        <v>1.745351761628982</v>
       </c>
       <c r="G5">
-        <v>2.061131493310711</v>
+        <v>1.346743453111799</v>
       </c>
       <c r="H5">
-        <v>1.75450591249637</v>
+        <v>0.9330307826389372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1523320761234164</v>
+        <v>0.107475150620072</v>
       </c>
       <c r="K5">
-        <v>0.3219392885989549</v>
+        <v>0.5497237967547903</v>
       </c>
       <c r="L5">
-        <v>0.2908726533729009</v>
+        <v>0.1331124643595913</v>
       </c>
       <c r="M5">
-        <v>0.2323853140740475</v>
+        <v>0.1666098192555907</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7531404554676442</v>
+        <v>0.7202107045629589</v>
       </c>
       <c r="C6">
-        <v>0.1415483535633726</v>
+        <v>0.09273520271172586</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1620621649588863</v>
+        <v>0.0558958701029475</v>
       </c>
       <c r="F6">
-        <v>3.090024131161471</v>
+        <v>1.742144686266144</v>
       </c>
       <c r="G6">
-        <v>2.061011648659274</v>
+        <v>1.344953883219276</v>
       </c>
       <c r="H6">
-        <v>1.75467236265753</v>
+        <v>0.9325487517854327</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1523385521238101</v>
+        <v>0.1075495918637834</v>
       </c>
       <c r="K6">
-        <v>0.3209154514399586</v>
+        <v>0.5457036456155322</v>
       </c>
       <c r="L6">
-        <v>0.2907957647857558</v>
+        <v>0.132486913786785</v>
       </c>
       <c r="M6">
-        <v>0.2321875359534609</v>
+        <v>0.165590313058761</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7606212505762926</v>
+        <v>0.7538571257516935</v>
       </c>
       <c r="C7">
-        <v>0.1418726776046242</v>
+        <v>0.09348211042249233</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.161987508258246</v>
+        <v>0.05654607940806677</v>
       </c>
       <c r="F7">
-        <v>3.09148640893423</v>
+        <v>1.764605455156513</v>
       </c>
       <c r="G7">
-        <v>2.061917427294503</v>
+        <v>1.357539295445704</v>
       </c>
       <c r="H7">
-        <v>1.753566974229031</v>
+        <v>0.9359885836468038</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1522935818760063</v>
+        <v>0.1070336358164816</v>
       </c>
       <c r="K7">
-        <v>0.3280396055035197</v>
+        <v>0.5736398417478199</v>
       </c>
       <c r="L7">
-        <v>0.2913407411500231</v>
+        <v>0.1368409147389613</v>
       </c>
       <c r="M7">
-        <v>0.2335715540015784</v>
+        <v>0.1726811725144444</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7946162991995607</v>
+        <v>0.9039268147394921</v>
       </c>
       <c r="C8">
-        <v>0.1432635294076015</v>
+        <v>0.09676699733765304</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1617617012977259</v>
+        <v>0.05953015985862642</v>
       </c>
       <c r="F8">
-        <v>3.100617300186997</v>
+        <v>1.868888145062385</v>
       </c>
       <c r="G8">
-        <v>2.067744346976113</v>
+        <v>1.417312714555862</v>
       </c>
       <c r="H8">
-        <v>1.749924827116075</v>
+        <v>0.9535762952842504</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1520946278697775</v>
+        <v>0.1047739683758113</v>
       </c>
       <c r="K8">
-        <v>0.359911248616541</v>
+        <v>0.6978213502486312</v>
       </c>
       <c r="L8">
-        <v>0.2940240818330935</v>
+        <v>0.1563674387010181</v>
       </c>
       <c r="M8">
-        <v>0.2399558409478821</v>
+        <v>0.2043558356151287</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8647959528178717</v>
+        <v>1.205416370637039</v>
       </c>
       <c r="C9">
-        <v>0.1458471951402167</v>
+        <v>0.1032125544618587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1616890231923307</v>
+        <v>0.06582623822423628</v>
       </c>
       <c r="F9">
-        <v>3.12813756910252</v>
+        <v>2.094193323034602</v>
       </c>
       <c r="G9">
-        <v>2.085756302588749</v>
+        <v>1.55164958688033</v>
       </c>
       <c r="H9">
-        <v>1.747220038480918</v>
+        <v>0.9975754419343446</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.151702428219485</v>
+        <v>0.1003904732829053</v>
       </c>
       <c r="K9">
-        <v>0.4239632380815124</v>
+        <v>0.9457944906672537</v>
       </c>
       <c r="L9">
-        <v>0.3002801582471335</v>
+        <v>0.1959564571028523</v>
       </c>
       <c r="M9">
-        <v>0.2534643545996857</v>
+        <v>0.268150100153413</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9184899858550182</v>
+        <v>1.432848435398711</v>
       </c>
       <c r="C10">
-        <v>0.1476589574974412</v>
+        <v>0.1079970320172663</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1618593324514457</v>
+        <v>0.07075565731837941</v>
       </c>
       <c r="F10">
-        <v>3.1542156027011</v>
+        <v>2.27471118311621</v>
       </c>
       <c r="G10">
-        <v>2.103017058546271</v>
+        <v>1.662739216998062</v>
       </c>
       <c r="H10">
-        <v>1.74793667661649</v>
+        <v>1.036579852257091</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1514128039121436</v>
+        <v>0.09718498668258935</v>
       </c>
       <c r="K10">
-        <v>0.4719671459805568</v>
+        <v>1.131952786502808</v>
       </c>
       <c r="L10">
-        <v>0.3054774770083526</v>
+        <v>0.2260126609423594</v>
       </c>
       <c r="M10">
-        <v>0.2639880926465068</v>
+        <v>0.3163568246186585</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9433783024253444</v>
+        <v>1.537974130029141</v>
       </c>
       <c r="C11">
-        <v>0.148464667519427</v>
+        <v>0.1101959000586561</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1619849880583111</v>
+        <v>0.07307203870927381</v>
       </c>
       <c r="F11">
-        <v>3.167351274167672</v>
+        <v>2.360644313408116</v>
       </c>
       <c r="G11">
-        <v>2.111746919377822</v>
+        <v>1.716442437390128</v>
       </c>
       <c r="H11">
-        <v>1.74884965506331</v>
+        <v>1.055988265091202</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1512806788369128</v>
+        <v>0.09572672304554608</v>
       </c>
       <c r="K11">
-        <v>0.4940106969226008</v>
+        <v>1.217810323854735</v>
       </c>
       <c r="L11">
-        <v>0.3079713690786008</v>
+        <v>0.2399399777854256</v>
       </c>
       <c r="M11">
-        <v>0.2689049726281638</v>
+        <v>0.3386535685191703</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9528691080327008</v>
+        <v>1.578055724803193</v>
       </c>
       <c r="C12">
-        <v>0.1487671316510699</v>
+        <v>0.1110328593633909</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1620394638286555</v>
+        <v>0.07396053340532305</v>
       </c>
       <c r="F12">
-        <v>3.172508290650725</v>
+        <v>2.393783866428336</v>
       </c>
       <c r="G12">
-        <v>2.115179092754687</v>
+        <v>1.737277238682793</v>
       </c>
       <c r="H12">
-        <v>1.74927974345718</v>
+        <v>1.063596703436076</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1512305897660244</v>
+        <v>0.09517422263976538</v>
       </c>
       <c r="K12">
-        <v>0.5023875811418748</v>
+        <v>1.250518772056864</v>
       </c>
       <c r="L12">
-        <v>0.3089342787951352</v>
+        <v>0.2452543694921445</v>
       </c>
       <c r="M12">
-        <v>0.2707854121763518</v>
+        <v>0.3471564016212056</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9508221577301015</v>
+        <v>1.569410744122678</v>
       </c>
       <c r="C13">
-        <v>0.1487021077956356</v>
+        <v>0.1108523957618743</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1620274255071728</v>
+        <v>0.0737686645486022</v>
       </c>
       <c r="F13">
-        <v>3.171389506677457</v>
+        <v>2.386619209395775</v>
       </c>
       <c r="G13">
-        <v>2.114434290645363</v>
+        <v>1.732767193149698</v>
       </c>
       <c r="H13">
-        <v>1.749183364826706</v>
+        <v>1.061946247765405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1512413798799139</v>
+        <v>0.09529323087808184</v>
       </c>
       <c r="K13">
-        <v>0.5005821617278912</v>
+        <v>1.243465240975468</v>
       </c>
       <c r="L13">
-        <v>0.3087260767175763</v>
+        <v>0.2441079585434949</v>
       </c>
       <c r="M13">
-        <v>0.270379603757199</v>
+        <v>0.3453224030582476</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9441577933613416</v>
+        <v>1.541265999415174</v>
       </c>
       <c r="C14">
-        <v>0.1484896042634105</v>
+        <v>0.1102646645323233</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1619893318759011</v>
+        <v>0.07314490442667676</v>
       </c>
       <c r="F14">
-        <v>3.167771882016893</v>
+        <v>2.363358427409011</v>
       </c>
       <c r="G14">
-        <v>2.112026753071405</v>
+        <v>1.718146277572941</v>
       </c>
       <c r="H14">
-        <v>1.74888334817399</v>
+        <v>1.056608909801383</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1512765591187302</v>
+        <v>0.09568127591807229</v>
       </c>
       <c r="K14">
-        <v>0.4946992787477598</v>
+        <v>1.2204971728614</v>
       </c>
       <c r="L14">
-        <v>0.3080502175622399</v>
+        <v>0.2403763630151019</v>
       </c>
       <c r="M14">
-        <v>0.2690593069008287</v>
+        <v>0.3393518678713363</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9400842797858502</v>
+        <v>1.524063089806731</v>
       </c>
       <c r="C15">
-        <v>0.1483590962601085</v>
+        <v>0.109905255531082</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.161966895007339</v>
+        <v>0.07276433058897069</v>
       </c>
       <c r="F15">
-        <v>3.165579785988029</v>
+        <v>2.349190029685388</v>
       </c>
       <c r="G15">
-        <v>2.110568527032541</v>
+        <v>1.709256811289038</v>
       </c>
       <c r="H15">
-        <v>1.748710564628198</v>
+        <v>1.053373958016067</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1512981000315055</v>
+        <v>0.09591891873568148</v>
       </c>
       <c r="K15">
-        <v>0.4910996749999299</v>
+        <v>1.206454954151809</v>
       </c>
       <c r="L15">
-        <v>0.3076386438062571</v>
+        <v>0.2380960350481729</v>
       </c>
       <c r="M15">
-        <v>0.2682529960656765</v>
+        <v>0.3357027059391413</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9168727521271478</v>
+        <v>1.426014520193462</v>
       </c>
       <c r="C16">
-        <v>0.1476059320878704</v>
+        <v>0.107853870731411</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1618520870355233</v>
+        <v>0.07060582290541362</v>
       </c>
       <c r="F16">
-        <v>3.153382748968653</v>
+        <v>2.269176192087997</v>
       </c>
       <c r="G16">
-        <v>2.102464217433067</v>
+        <v>1.659296926076593</v>
       </c>
       <c r="H16">
-        <v>1.747888819082135</v>
+        <v>1.035346598070475</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1514214308673374</v>
+        <v>0.09728026287490277</v>
       </c>
       <c r="K16">
-        <v>0.4705306828280413</v>
+        <v>1.126367686748864</v>
       </c>
       <c r="L16">
-        <v>0.3053170938566581</v>
+        <v>0.2251079198065469</v>
       </c>
       <c r="M16">
-        <v>0.2636693610567633</v>
+        <v>0.3149076326123463</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9027514473518465</v>
+        <v>1.366314302310201</v>
       </c>
       <c r="C17">
-        <v>0.1471391704717249</v>
+        <v>0.1066018768852857</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1617939709560972</v>
+        <v>0.06930107021574372</v>
       </c>
       <c r="F17">
-        <v>3.146226086864473</v>
+        <v>2.221101613548839</v>
       </c>
       <c r="G17">
-        <v>2.097717418586342</v>
+        <v>1.629489010667442</v>
       </c>
       <c r="H17">
-        <v>1.747535012563304</v>
+        <v>1.024727193493533</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.151496992883124</v>
+        <v>0.09811519297389015</v>
       </c>
       <c r="K17">
-        <v>0.4579649756209108</v>
+        <v>1.07755595064819</v>
       </c>
       <c r="L17">
-        <v>0.3039260146399982</v>
+        <v>0.2172079551764057</v>
       </c>
       <c r="M17">
-        <v>0.2608905595307291</v>
+        <v>0.3022492058734372</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8946728142539087</v>
+        <v>1.332130947721026</v>
       </c>
       <c r="C18">
-        <v>0.1468689621626709</v>
+        <v>0.1058837992490496</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1617650812752061</v>
+        <v>0.06855752806525928</v>
       </c>
       <c r="F18">
-        <v>3.142229562136208</v>
+        <v>2.193806212322656</v>
       </c>
       <c r="G18">
-        <v>2.095069805673347</v>
+        <v>1.612639688895541</v>
       </c>
       <c r="H18">
-        <v>1.747386763905837</v>
+        <v>1.018774661331946</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1515404191358591</v>
+        <v>0.09859543349639566</v>
       </c>
       <c r="K18">
-        <v>0.4507569460018601</v>
+        <v>1.049589383743267</v>
       </c>
       <c r="L18">
-        <v>0.3031381083176967</v>
+        <v>0.2126878230217528</v>
       </c>
       <c r="M18">
-        <v>0.259304469448395</v>
+        <v>0.2950025471832376</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.891945022533946</v>
+        <v>1.320582641964279</v>
       </c>
       <c r="C19">
-        <v>0.1467771750729128</v>
+        <v>0.10564098922368</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1617560800753353</v>
+        <v>0.06830694517053715</v>
       </c>
       <c r="F19">
-        <v>3.140896988511372</v>
+        <v>2.184624114630395</v>
       </c>
       <c r="G19">
-        <v>2.094187555583375</v>
+        <v>1.606984282610142</v>
       </c>
       <c r="H19">
-        <v>1.747346060289544</v>
+        <v>1.016785372285483</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1515551165809397</v>
+        <v>0.09875804472113181</v>
       </c>
       <c r="K19">
-        <v>0.4483197747775591</v>
+        <v>1.040138250745429</v>
       </c>
       <c r="L19">
-        <v>0.3028734364765313</v>
+        <v>0.211161346520214</v>
       </c>
       <c r="M19">
-        <v>0.2587695458348946</v>
+        <v>0.2925546196026971</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9042501780407122</v>
+        <v>1.372653256773958</v>
       </c>
       <c r="C20">
-        <v>0.1471890379511009</v>
+        <v>0.1067349355986948</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1617996881931454</v>
+        <v>0.06943924260940548</v>
       </c>
       <c r="F20">
-        <v>3.146975528427959</v>
+        <v>2.226182058880468</v>
       </c>
       <c r="G20">
-        <v>2.098214171594947</v>
+        <v>1.632631241233156</v>
       </c>
       <c r="H20">
-        <v>1.74756695785706</v>
+        <v>1.025841421238539</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.151488952819701</v>
+        <v>0.09802631407583551</v>
       </c>
       <c r="K20">
-        <v>0.4593006068419356</v>
+        <v>1.082740607534419</v>
       </c>
       <c r="L20">
-        <v>0.3040728349595554</v>
+        <v>0.2180464385018723</v>
       </c>
       <c r="M20">
-        <v>0.2611851055219816</v>
+        <v>0.3035931373632579</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9461134867514716</v>
+        <v>1.549525110832889</v>
       </c>
       <c r="C21">
-        <v>0.1485520932502311</v>
+        <v>0.1104371697013491</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1620003341156462</v>
+        <v>0.07332780455027077</v>
       </c>
       <c r="F21">
-        <v>3.168829505761366</v>
+        <v>2.370174019412374</v>
       </c>
       <c r="G21">
-        <v>2.11273047468552</v>
+        <v>1.722426902916794</v>
       </c>
       <c r="H21">
-        <v>1.748969181083311</v>
+        <v>1.058169425569986</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1512662276667394</v>
+        <v>0.09556730778393785</v>
       </c>
       <c r="K21">
-        <v>0.4964264258634898</v>
+        <v>1.227237900083679</v>
       </c>
       <c r="L21">
-        <v>0.3082482318394142</v>
+        <v>0.2414712942272388</v>
       </c>
       <c r="M21">
-        <v>0.2694466082294866</v>
+        <v>0.3411038864256852</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9738589186052877</v>
+        <v>1.666728590285771</v>
       </c>
       <c r="C22">
-        <v>0.149427543370912</v>
+        <v>0.1128824178687324</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.162171627456658</v>
+        <v>0.07593561536185334</v>
       </c>
       <c r="F22">
-        <v>3.184177890247426</v>
+        <v>2.467796138946952</v>
       </c>
       <c r="G22">
-        <v>2.122954327241217</v>
+        <v>1.78404224705119</v>
       </c>
       <c r="H22">
-        <v>1.750377329151405</v>
+        <v>1.080816957920177</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1511203354336894</v>
+        <v>0.09395838735577744</v>
       </c>
       <c r="K22">
-        <v>0.5208619765521973</v>
+        <v>1.322832516851633</v>
       </c>
       <c r="L22">
-        <v>0.3110850334354751</v>
+        <v>0.2570183798942907</v>
       </c>
       <c r="M22">
-        <v>0.2749538985496329</v>
+        <v>0.3659699174690232</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9590155273807284</v>
+        <v>1.604016050598972</v>
       </c>
       <c r="C23">
-        <v>0.1489617018883749</v>
+        <v>0.1115746116533316</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1620765420991468</v>
+        <v>0.07453745671883638</v>
       </c>
       <c r="F23">
-        <v>3.175888730954114</v>
+        <v>2.415354116431601</v>
       </c>
       <c r="G23">
-        <v>2.117430222092935</v>
+        <v>1.750873800831528</v>
       </c>
       <c r="H23">
-        <v>1.749580796260773</v>
+        <v>1.068583647107943</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1511982317013354</v>
+        <v>0.09481736093164184</v>
       </c>
       <c r="K23">
-        <v>0.5078046199649862</v>
+        <v>1.2716962962173</v>
       </c>
       <c r="L23">
-        <v>0.3095611389099133</v>
+        <v>0.248697527951137</v>
       </c>
       <c r="M23">
-        <v>0.2720047152596266</v>
+        <v>0.3526639952390553</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9035724776048824</v>
+        <v>1.369786984686783</v>
       </c>
       <c r="C24">
-        <v>0.147166498662969</v>
+        <v>0.1066747745070202</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1617970893424712</v>
+        <v>0.06937675443453273</v>
       </c>
       <c r="F24">
-        <v>3.146636338512309</v>
+        <v>2.223884123928244</v>
       </c>
       <c r="G24">
-        <v>2.097989336051512</v>
+        <v>1.631209746047915</v>
       </c>
       <c r="H24">
-        <v>1.747552343557601</v>
+        <v>1.025337204683382</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1514925877788569</v>
+        <v>0.09806649549454605</v>
       </c>
       <c r="K24">
-        <v>0.458696717608035</v>
+        <v>1.080396327330902</v>
       </c>
       <c r="L24">
-        <v>0.3040064205941775</v>
+        <v>0.2176672929999341</v>
       </c>
       <c r="M24">
-        <v>0.2610519055127511</v>
+        <v>0.3029854503803833</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.845435197793222</v>
+        <v>1.122932820604149</v>
       </c>
       <c r="C25">
-        <v>0.1451635149889157</v>
+        <v>0.10146390805496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1616692604467254</v>
+        <v>0.0640721676134941</v>
       </c>
       <c r="F25">
-        <v>3.11966354989039</v>
+        <v>2.030787397202872</v>
       </c>
       <c r="G25">
-        <v>2.080177262480404</v>
+        <v>1.513282187024245</v>
       </c>
       <c r="H25">
-        <v>1.747476837249948</v>
+        <v>0.9845676022693084</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1518087719235366</v>
+        <v>0.101572622080317</v>
       </c>
       <c r="K25">
-        <v>0.4064694716847725</v>
+        <v>0.8781105572277568</v>
       </c>
       <c r="L25">
-        <v>0.2984818253644832</v>
+        <v>0.1850899596908988</v>
       </c>
       <c r="M25">
-        <v>0.2497044719657779</v>
+        <v>0.2506813127607472</v>
       </c>
       <c r="N25">
         <v>0</v>
